--- a/template.xlsx
+++ b/template.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="April" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="May" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="May" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="June" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -2,15 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="June" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -26,10 +27,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,19 +47,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -74,7 +63,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -440,10 +429,10 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -493,13 +482,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -514,7 +503,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Consumption Period</t>
+          <t>Consumption Percentage</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -535,6 +524,16 @@
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Remarks</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>ExtraText</t>
         </is>
       </c>
     </row>

--- a/template.xlsx
+++ b/template.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,11 +531,6 @@
           <t>Month</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>ExtraText</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -2,16 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="June" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -27,7 +26,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,10 +48,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -63,7 +73,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -432,7 +442,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -482,13 +492,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -531,6 +541,7 @@
           <t>Month</t>
         </is>
       </c>
+      <c r="I1" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,6 +27,12 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -66,9 +72,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -438,8 +447,8 @@
   </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -475,9 +484,9 @@
           <t>Net Price</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Remarks</t>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Category</t>
         </is>
       </c>
     </row>
@@ -494,8 +503,8 @@
   </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -531,9 +540,9 @@
           <t>Net Price</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Remarks</t>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Category</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
